--- a/database/raw_data/내부자료/좋은제약_거래처정보.xlsx
+++ b/database/raw_data/내부자료/좋은제약_거래처정보.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\kdy\Projects\Project_SK_5\beta_narutalk\database\raw_data\내부자료\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{906068FD-C1C2-45C3-A9D0-26A86EEB1CAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFF72E40-8492-4E48-9100-26F446CCD6E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8220" yWindow="26880" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="61">
   <si>
     <t>거래처ID</t>
   </si>
@@ -38,129 +38,6 @@
   </si>
   <si>
     <t>총환자수</t>
-  </si>
-  <si>
-    <t>굿모닝신경과의원(강서구 화곡동)</t>
-  </si>
-  <si>
-    <t>연세가족의원(강서구 가양동)</t>
-  </si>
-  <si>
-    <t>코아이비인후과(강서구 가양동)</t>
-  </si>
-  <si>
-    <t>강서정형외과(강서구 화곡동)</t>
-  </si>
-  <si>
-    <t>서울통증의학과의원(강서구 화곡동)</t>
-  </si>
-  <si>
-    <t>신앤윤가정의학과의원(강서구 염창동)</t>
-  </si>
-  <si>
-    <t>강서굿모닝이비인후과(강서구 등촌동)</t>
-  </si>
-  <si>
-    <t>이고은피부과(강서구 화곡동)</t>
-  </si>
-  <si>
-    <t>예인내과의원(강서구 가양동)</t>
-  </si>
-  <si>
-    <t>전용택내과의원(강서구 방화동)</t>
-  </si>
-  <si>
-    <t>박기호내과의원(강서구 내발산동)</t>
-  </si>
-  <si>
-    <t>강서예사랑피부과의원(강서구 가양동)</t>
-  </si>
-  <si>
-    <t>굿모닝의원(강서구 등촌동)</t>
-  </si>
-  <si>
-    <t>예일내과의원(강서구 화곡7동)</t>
-  </si>
-  <si>
-    <t>시니어스재활의학과(강서구 등촌1동)</t>
-  </si>
-  <si>
-    <t>고운성모이비인후과(강서구 화곡동)</t>
-  </si>
-  <si>
-    <t>새본내과의원(강서구 등촌동)</t>
-  </si>
-  <si>
-    <t>연세하나내과(강서구 방화동)</t>
-  </si>
-  <si>
-    <t>강서성모내과의원(강서구 염창동)</t>
-  </si>
-  <si>
-    <t>마곡성모내과신경과의원(강서구 마곡동)</t>
-  </si>
-  <si>
-    <t>준가정의학과의원(강서구 등촌동)</t>
-  </si>
-  <si>
-    <t>방내과의원(강서구 화곡동)</t>
-  </si>
-  <si>
-    <t>유영훈가정의학과의원(강서구 방화동)</t>
-  </si>
-  <si>
-    <t>더블유이이비인후과의원(강서구 등촌동)</t>
-  </si>
-  <si>
-    <t>서울내과의원(강서구 방화1동)</t>
-  </si>
-  <si>
-    <t>현대의원(강서구 방화동)</t>
-  </si>
-  <si>
-    <t>강서신경외과의원(강서구 등촌동)</t>
-  </si>
-  <si>
-    <t>삼성마취통증의학과(강서구 화곡동)</t>
-  </si>
-  <si>
-    <t>참병원(강서구 화곡동)</t>
-  </si>
-  <si>
-    <t>선양신경외과의원(강서구 염창동)</t>
-  </si>
-  <si>
-    <t>부성정형외과(강서구 화곡동)</t>
-  </si>
-  <si>
-    <t>안태수내과의원(강서구 화곡3동)</t>
-  </si>
-  <si>
-    <t>김은석가정의학과의원(강서구 공항동)</t>
-  </si>
-  <si>
-    <t>햇살가득한가정의학과(강서구 등촌2동)</t>
-  </si>
-  <si>
-    <t>안강현내과(강서구 등촌동)</t>
-  </si>
-  <si>
-    <t>밸런스정형외과의원(강서구 등촌동)</t>
-  </si>
-  <si>
-    <t>신민호내과의원(강서구 염창동)</t>
-  </si>
-  <si>
-    <t>강이비인후과(강서구 화곡1동)</t>
-  </si>
-  <si>
-    <t>열린연세의원(강서구 등촌동)</t>
-  </si>
-  <si>
-    <t>웰에이징김정혁내과(강서구 등촌동)</t>
-  </si>
-  <si>
-    <t>정기수내과의원(강서구 화곡5동)</t>
   </si>
   <si>
     <t>202312</t>
@@ -200,6 +77,137 @@
   </si>
   <si>
     <t>202411</t>
+  </si>
+  <si>
+    <t>미라클신경과의원(강서구 화곡동)</t>
+  </si>
+  <si>
+    <t>강서미라클이비인후과(강서구 등촌동)</t>
+  </si>
+  <si>
+    <t>미라클의원(강서구 등촌동)</t>
+  </si>
+  <si>
+    <t>우리가족의원(강서구 가양동)</t>
+  </si>
+  <si>
+    <t>우리하나내과(강서구 방화동)</t>
+  </si>
+  <si>
+    <t>목아이비인후과(강서구 가양동)</t>
+  </si>
+  <si>
+    <t>우리정형외과(강서구 화곡동)</t>
+  </si>
+  <si>
+    <t>좋은통증의학과의원(강서구 화곡동)</t>
+  </si>
+  <si>
+    <t>김나영가정의학과의원(강서구 염창동)</t>
+  </si>
+  <si>
+    <t>고운피부과(강서구 화곡동)</t>
+  </si>
+  <si>
+    <t>청성내과의원(강서구 가양동)</t>
+  </si>
+  <si>
+    <t>최정식내과의원(강서구 방화동)</t>
+  </si>
+  <si>
+    <t>천기정내과의원(강서구 내발산동)</t>
+  </si>
+  <si>
+    <t>우리사랑피부과의원(강서구 가양동)</t>
+  </si>
+  <si>
+    <t>이솜내과의원(강서구 화곡7동)</t>
+  </si>
+  <si>
+    <t>박기정이비인후과(강서구 화곡동)</t>
+  </si>
+  <si>
+    <t>정가은내과의원(강서구 등촌동)</t>
+  </si>
+  <si>
+    <t>문가영내과의원(강서구 염창동)</t>
+  </si>
+  <si>
+    <t>허한결내과신경과의원(강서구 마곡동)</t>
+  </si>
+  <si>
+    <t>재현가정의학과의원(강서구 등촌동)</t>
+  </si>
+  <si>
+    <t>손현성내과의원(강서구 화곡동)</t>
+  </si>
+  <si>
+    <t>김유진가정의학과의원(강서구 방화동)</t>
+  </si>
+  <si>
+    <t>좋은와이이이비인후과의원(강서구 등촌동)</t>
+  </si>
+  <si>
+    <t>이용규내과의원(강서구 방화1동)</t>
+  </si>
+  <si>
+    <t>노명구의원(강서구 방화동)</t>
+  </si>
+  <si>
+    <t>마음편한신경외과의원(강서구 등촌동)</t>
+  </si>
+  <si>
+    <t>한방마취통증의학과(강서구 화곡동)</t>
+  </si>
+  <si>
+    <t>서울정병원(강서구 화곡동)</t>
+  </si>
+  <si>
+    <t>진양신경외과의원(강서구 염창동)</t>
+  </si>
+  <si>
+    <t>선형정형외과(강서구 화곡동)</t>
+  </si>
+  <si>
+    <t>안기수내과의원(강서구 화곡3동)</t>
+  </si>
+  <si>
+    <t>다니엘가정의학과의원(강서구 공항동)</t>
+  </si>
+  <si>
+    <t>김기영가정의학과(강서구 등촌2동)</t>
+  </si>
+  <si>
+    <t>정민내과(강서구 등촌동)</t>
+  </si>
+  <si>
+    <t>균형잡힌정형외과의원(강서구 등촌동)</t>
+  </si>
+  <si>
+    <t>강호식내과의원(강서구 염창동)</t>
+  </si>
+  <si>
+    <t>우리사랑의원(강서구 등촌동)</t>
+  </si>
+  <si>
+    <t>웰에이징안희수내과(강서구 등촌동)</t>
+  </si>
+  <si>
+    <t>마고운내과의원(강서구 화곡5동)</t>
+  </si>
+  <si>
+    <t>고든탑재활의학과(강서구 등촌1동)</t>
+  </si>
+  <si>
+    <t>강호식내과의원(강서구 염창동)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>목시원이비인후과(강서구 화곡1동)</t>
+  </si>
+  <si>
+    <t>0…............................................................................................</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -586,8 +594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F493"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D61" sqref="D61"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -620,10 +628,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>6</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>47</v>
       </c>
       <c r="C2" s="3">
         <v>12335411</v>
@@ -640,10 +648,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="C3" s="3">
         <v>12987004</v>
@@ -660,10 +668,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="C4" s="3">
         <v>12624481</v>
@@ -680,10 +688,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="C5" s="3">
         <v>12944819</v>
@@ -700,10 +708,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="C6" s="3">
         <v>12938007</v>
@@ -720,10 +728,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="C7" s="3">
         <v>14470071</v>
@@ -740,10 +748,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="C8" s="3">
         <v>12513401</v>
@@ -760,10 +768,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="C9" s="3">
         <v>14558256</v>
@@ -780,10 +788,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="C10" s="3">
         <v>11354782</v>
@@ -800,10 +808,10 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="C11" s="3">
         <v>15567803</v>
@@ -820,10 +828,10 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="C12" s="3">
         <v>13553352</v>
@@ -840,10 +848,10 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="C13" s="3">
         <v>15184268</v>
@@ -860,10 +868,10 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="C14" s="3">
         <v>11582053</v>
@@ -880,10 +888,10 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>7</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>48</v>
       </c>
       <c r="C15" s="3">
         <v>12407035</v>
@@ -900,10 +908,10 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="C16" s="3">
         <v>11729391</v>
@@ -920,10 +928,10 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="C17" s="3">
         <v>11721641</v>
@@ -940,10 +948,10 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="C18" s="3">
         <v>10946837</v>
@@ -960,10 +968,10 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="C19" s="3">
         <v>10961018</v>
@@ -980,10 +988,10 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="C20" s="3">
         <v>11136934</v>
@@ -1000,10 +1008,10 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="C21" s="3">
         <v>12170964</v>
@@ -1020,10 +1028,10 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="C22" s="3">
         <v>18901732</v>
@@ -1040,10 +1048,10 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="C23" s="3">
         <v>10283478</v>
@@ -1060,10 +1068,10 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="C24" s="3">
         <v>8196698</v>
@@ -1080,10 +1088,10 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="C25" s="3">
         <v>9207557</v>
@@ -1100,10 +1108,10 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="C26" s="3">
         <v>4418917</v>
@@ -1120,10 +1128,10 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="C27" s="3">
         <v>4648909</v>
@@ -1140,10 +1148,10 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" s="5" t="s">
         <v>8</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>49</v>
       </c>
       <c r="C28" s="3">
         <v>2530657</v>
@@ -1160,10 +1168,10 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="C29" s="3">
         <v>2109781</v>
@@ -1180,10 +1188,10 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="C30" s="3">
         <v>1736404</v>
@@ -1200,10 +1208,10 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="C31" s="3">
         <v>1556401</v>
@@ -1220,10 +1228,10 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="C32" s="3">
         <v>1359502</v>
@@ -1240,10 +1248,10 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="C33" s="3">
         <v>1659235</v>
@@ -1260,10 +1268,10 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="C34" s="3">
         <v>1203816</v>
@@ -1280,10 +1288,10 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="C35" s="3">
         <v>1866745</v>
@@ -1300,10 +1308,10 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="C36" s="3">
         <v>1469544</v>
@@ -1320,10 +1328,10 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="C37" s="3">
         <v>1725008</v>
@@ -1340,10 +1348,10 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="C38" s="3">
         <v>3469494</v>
@@ -1360,10 +1368,10 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="C39" s="3">
         <v>3234669</v>
@@ -1380,10 +1388,10 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="C40" s="3">
         <v>2905351</v>
@@ -1400,10 +1408,10 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
+        <v>24</v>
+      </c>
+      <c r="B41" s="5" t="s">
         <v>9</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>50</v>
       </c>
       <c r="C41" s="3">
         <v>3308413</v>
@@ -1420,10 +1428,10 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="C42" s="3">
         <v>3291189</v>
@@ -1440,10 +1448,10 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="C43" s="3">
         <v>3304892</v>
@@ -1460,10 +1468,10 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="C44" s="3">
         <v>3452575</v>
@@ -1480,10 +1488,10 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="C45" s="3">
         <v>3567940</v>
@@ -1500,10 +1508,10 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="C46" s="3">
         <v>3455158</v>
@@ -1520,10 +1528,10 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="C47" s="3">
         <v>3151760</v>
@@ -1540,10 +1548,10 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="C48" s="3">
         <v>3787710</v>
@@ -1560,10 +1568,10 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="C49" s="3">
         <v>3810864</v>
@@ -1580,10 +1588,10 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="C50" s="3">
         <v>1980060</v>
@@ -1600,10 +1608,10 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="C51" s="3">
         <v>1967790</v>
@@ -1620,10 +1628,10 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="C52" s="3">
         <v>1920386</v>
@@ -1640,10 +1648,10 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="C53" s="3">
         <v>2201056</v>
@@ -1660,10 +1668,10 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
+        <v>25</v>
+      </c>
+      <c r="B54" s="5" t="s">
         <v>10</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>51</v>
       </c>
       <c r="C54" s="3">
         <v>1734416</v>
@@ -1680,10 +1688,10 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="C55" s="3">
         <v>2070043</v>
@@ -1700,10 +1708,10 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="C56" s="3">
         <v>1828896</v>
@@ -1720,10 +1728,10 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="C57" s="3">
         <v>2129245</v>
@@ -1740,10 +1748,10 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="C58" s="3">
         <v>1803698</v>
@@ -1760,10 +1768,10 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="C59" s="3">
         <v>2324614</v>
@@ -1780,10 +1788,10 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="C60" s="3">
         <v>1742353</v>
@@ -1800,10 +1808,10 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="C61" s="3">
         <v>2047661</v>
@@ -1820,10 +1828,10 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="C62" s="3">
         <v>1755914</v>
@@ -1840,10 +1848,10 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="C63" s="3">
         <v>2059083</v>
@@ -1860,10 +1868,10 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="C64" s="3">
         <v>1748404</v>
@@ -1880,10 +1888,10 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="C65" s="3">
         <v>1743207</v>
@@ -1900,10 +1908,10 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="C66" s="3">
         <v>1740064</v>
@@ -1920,10 +1928,10 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
+        <v>26</v>
+      </c>
+      <c r="B67" s="5" t="s">
         <v>11</v>
-      </c>
-      <c r="B67" s="5" t="s">
-        <v>52</v>
       </c>
       <c r="C67" s="3">
         <v>1862350</v>
@@ -1940,10 +1948,10 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="C68" s="3">
         <v>1957032</v>
@@ -1960,10 +1968,10 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="C69" s="3">
         <v>1769971</v>
@@ -1980,10 +1988,10 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="C70" s="3">
         <v>1831861</v>
@@ -2000,10 +2008,10 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="C71" s="3">
         <v>1818967</v>
@@ -2020,10 +2028,10 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="C72" s="3">
         <v>1675596</v>
@@ -2040,10 +2048,10 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="C73" s="3">
         <v>1830566</v>
@@ -2060,10 +2068,10 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="C74" s="3">
         <v>1687464</v>
@@ -2080,10 +2088,10 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="C75" s="3">
         <v>1674856</v>
@@ -2100,10 +2108,10 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="C76" s="3">
         <v>1272440</v>
@@ -2120,10 +2128,10 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="C77" s="3">
         <v>1002331</v>
@@ -2140,10 +2148,10 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="C78" s="3">
         <v>579002</v>
@@ -2160,10 +2168,10 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="C79" s="3">
         <v>497238</v>
@@ -2180,10 +2188,10 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
+        <v>19</v>
+      </c>
+      <c r="B80" s="5" t="s">
         <v>12</v>
-      </c>
-      <c r="B80" s="5" t="s">
-        <v>53</v>
       </c>
       <c r="C80" s="3">
         <v>631092</v>
@@ -2200,10 +2208,10 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="C81" s="3">
         <v>427070</v>
@@ -2220,10 +2228,10 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="C82" s="3">
         <v>455106</v>
@@ -2240,10 +2248,10 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="C83" s="3">
         <v>507086</v>
@@ -2260,10 +2268,10 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="C84" s="3">
         <v>440732</v>
@@ -2280,10 +2288,10 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="C85" s="3">
         <v>497384</v>
@@ -2300,10 +2308,10 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="C86" s="3">
         <v>1547964</v>
@@ -2320,10 +2328,10 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="C87" s="3">
         <v>1502729</v>
@@ -2340,10 +2348,10 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="C88" s="3">
         <v>1265517</v>
@@ -2360,10 +2368,10 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="C89" s="3">
         <v>1389126</v>
@@ -2380,10 +2388,10 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="C90" s="3">
         <v>1325560</v>
@@ -2400,10 +2408,10 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="C91" s="3">
         <v>1589576</v>
@@ -2420,10 +2428,10 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="C92" s="3">
         <v>1569857</v>
@@ -2440,10 +2448,10 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
+        <v>27</v>
+      </c>
+      <c r="B93" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="B93" s="5" t="s">
-        <v>54</v>
       </c>
       <c r="C93" s="3">
         <v>1583060</v>
@@ -2460,10 +2468,10 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="C94" s="3">
         <v>1513298</v>
@@ -2480,10 +2488,10 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="C95" s="3">
         <v>1381656</v>
@@ -2500,10 +2508,10 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="C96" s="3">
         <v>1242248</v>
@@ -2520,10 +2528,10 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="C97" s="3">
         <v>1008728</v>
@@ -2540,10 +2548,10 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="C98" s="3">
         <v>1493506</v>
@@ -2560,10 +2568,10 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="C99" s="3">
         <v>1354662</v>
@@ -2580,10 +2588,10 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="C100" s="3">
         <v>1325895</v>
@@ -2600,10 +2608,10 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="C101" s="3">
         <v>1231406</v>
@@ -2620,10 +2628,10 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="C102" s="3">
         <v>1304058</v>
@@ -2640,10 +2648,10 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="C103" s="3">
         <v>1309396</v>
@@ -2660,10 +2668,10 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="C104" s="3">
         <v>1301885</v>
@@ -2680,10 +2688,10 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="C105" s="3">
         <v>1562834</v>
@@ -2700,10 +2708,10 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
+        <v>28</v>
+      </c>
+      <c r="B106" s="5" t="s">
         <v>14</v>
-      </c>
-      <c r="B106" s="5" t="s">
-        <v>55</v>
       </c>
       <c r="C106" s="3">
         <v>1387482</v>
@@ -2720,10 +2728,10 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="C107" s="3">
         <v>1516921</v>
@@ -2740,10 +2748,10 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="C108" s="3">
         <v>1061920</v>
@@ -2760,10 +2768,10 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="C109" s="3">
         <v>478662</v>
@@ -2780,10 +2788,10 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="C110" s="3">
         <v>1412520</v>
@@ -2800,10 +2808,10 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="C111" s="3">
         <v>1409838</v>
@@ -2820,10 +2828,10 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="C112" s="3">
         <v>1032570</v>
@@ -2840,10 +2848,10 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="C113" s="3">
         <v>1043298</v>
@@ -2860,10 +2868,10 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="C114" s="3">
         <v>1341000</v>
@@ -2880,10 +2888,10 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="C115" s="3">
         <v>1327590</v>
@@ -2900,10 +2908,10 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="C116" s="3">
         <v>915009</v>
@@ -2920,10 +2928,10 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="C117" s="3">
         <v>910986</v>
@@ -2940,10 +2948,10 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="C118" s="3">
         <v>1019160</v>
@@ -2960,10 +2968,10 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
+        <v>29</v>
+      </c>
+      <c r="B119" s="5" t="s">
         <v>15</v>
-      </c>
-      <c r="B119" s="5" t="s">
-        <v>56</v>
       </c>
       <c r="C119" s="3">
         <v>971778</v>
@@ -2980,10 +2988,10 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="C120" s="3">
         <v>892659</v>
@@ -3000,10 +3008,10 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="C121" s="3">
         <v>849300</v>
@@ -3020,10 +3028,10 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="C122" s="3">
         <v>1369871</v>
@@ -3040,10 +3048,10 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="C123" s="3">
         <v>1018777</v>
@@ -3060,10 +3068,10 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="C124" s="3">
         <v>851140</v>
@@ -3080,10 +3088,10 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="C125" s="3">
         <v>983250</v>
@@ -3100,10 +3108,10 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="C126" s="3">
         <v>617666</v>
@@ -3120,10 +3128,10 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="C127" s="3">
         <v>653501</v>
@@ -3140,10 +3148,10 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="C128" s="3">
         <v>900585</v>
@@ -3160,10 +3168,10 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="C129" s="3">
         <v>695496</v>
@@ -3180,10 +3188,10 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="C130" s="3">
         <v>490749</v>
@@ -3200,10 +3208,10 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="C131" s="3">
         <v>770168</v>
@@ -3220,10 +3228,10 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
+        <v>30</v>
+      </c>
+      <c r="B132" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="B132" s="5" t="s">
-        <v>57</v>
       </c>
       <c r="C132" s="3">
         <v>716843</v>
@@ -3240,10 +3248,10 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="C133" s="3">
         <v>475602</v>
@@ -3260,10 +3268,10 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A134" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="C134" s="3">
         <v>1234448</v>
@@ -3280,10 +3288,10 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A135" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="C135" s="3">
         <v>1188835</v>
@@ -3300,10 +3308,10 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A136" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="C136" s="3">
         <v>1198519</v>
@@ -3320,10 +3328,10 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A137" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="C137" s="3">
         <v>1727370</v>
@@ -3340,10 +3348,10 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A138" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="C138" s="3">
         <v>1293039</v>
@@ -3360,10 +3368,10 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A139" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="C139" s="3">
         <v>1516743</v>
@@ -3380,10 +3388,10 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A140" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="C140" s="3">
         <v>1700453</v>
@@ -3400,10 +3408,10 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A141" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="C141" s="3">
         <v>1429282</v>
@@ -3420,10 +3428,10 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A142" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="C142" s="3">
         <v>1511598</v>
@@ -3440,10 +3448,10 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A143" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="C143" s="3">
         <v>1943733</v>
@@ -3460,10 +3468,10 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A144" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="C144" s="3">
         <v>1215458</v>
@@ -3480,10 +3488,10 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A145" t="s">
+        <v>31</v>
+      </c>
+      <c r="B145" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="B145" s="5" t="s">
-        <v>58</v>
       </c>
       <c r="C145" s="3">
         <v>1179697</v>
@@ -3500,10 +3508,10 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A146" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="C146" s="3">
         <v>1111820</v>
@@ -3520,10 +3528,10 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A147" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="C147" s="3">
         <v>1243900</v>
@@ -3540,10 +3548,10 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A148" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="C148" s="3">
         <v>1368406</v>
@@ -3560,10 +3568,10 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A149" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="C149" s="3">
         <v>1428846</v>
@@ -3580,10 +3588,10 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A150" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="C150" s="3">
         <v>1538570</v>
@@ -3600,10 +3608,10 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A151" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="C151" s="3">
         <v>1617408</v>
@@ -3620,10 +3628,10 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A152" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="C152" s="3">
         <v>1407197</v>
@@ -3640,10 +3648,10 @@
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A153" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="C153" s="3">
         <v>1622997</v>
@@ -3660,10 +3668,10 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A154" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="C154" s="3">
         <v>1514910</v>
@@ -3680,10 +3688,10 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A155" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="C155" s="3">
         <v>1570476</v>
@@ -3700,10 +3708,10 @@
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A156" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="C156" s="3">
         <v>1612465</v>
@@ -3720,10 +3728,10 @@
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A157" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="C157" s="3">
         <v>1888879</v>
@@ -3740,10 +3748,10 @@
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A158" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="C158" s="3">
         <v>839958</v>
@@ -3760,10 +3768,10 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A159" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="C159" s="3">
         <v>692830</v>
@@ -3780,10 +3788,10 @@
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A160" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="C160" s="3">
         <v>507844</v>
@@ -3800,10 +3808,10 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A161" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="C161" s="3">
         <v>494158</v>
@@ -3820,10 +3828,10 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A162" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="C162" s="3">
         <v>410485</v>
@@ -3840,10 +3848,10 @@
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A163" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="C163" s="3">
         <v>368683</v>
@@ -3860,10 +3868,10 @@
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A164" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="C164" s="3">
         <v>434625</v>
@@ -3880,10 +3888,10 @@
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A165" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="C165" s="3">
         <v>419785</v>
@@ -3900,10 +3908,10 @@
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A166" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="C166" s="3">
         <v>362868</v>
@@ -3920,10 +3928,10 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A167" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="C167" s="3">
         <v>472921</v>
@@ -3940,10 +3948,10 @@
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A168" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="C168" s="3">
         <v>525240</v>
@@ -3960,10 +3968,10 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A169" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="C169" s="3">
         <v>581477</v>
@@ -3980,10 +3988,10 @@
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A170" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="C170" s="3">
         <v>651169</v>
@@ -4000,10 +4008,10 @@
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A171" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="C171" s="3">
         <v>773564</v>
@@ -4020,10 +4028,10 @@
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A172" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="C172" s="3">
         <v>609146</v>
@@ -4040,10 +4048,10 @@
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A173" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="C173" s="3">
         <v>691273</v>
@@ -4060,10 +4068,10 @@
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A174" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="C174" s="3">
         <v>794052</v>
@@ -4080,10 +4088,10 @@
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A175" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="C175" s="3">
         <v>679910</v>
@@ -4100,10 +4108,10 @@
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A176" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="C176" s="3">
         <v>670482</v>
@@ -4120,10 +4128,10 @@
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A177" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="C177" s="3">
         <v>618464</v>
@@ -4140,10 +4148,10 @@
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A178" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="C178" s="3">
         <v>718991</v>
@@ -4160,10 +4168,10 @@
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A179" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="C179" s="3">
         <v>738912</v>
@@ -4180,10 +4188,10 @@
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A180" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="C180" s="3">
         <v>670194</v>
@@ -4200,10 +4208,10 @@
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A181" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="C181" s="3">
         <v>584093</v>
@@ -4220,10 +4228,10 @@
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A182" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="C182" s="3">
         <v>542674</v>
@@ -4240,10 +4248,10 @@
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A183" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="C183" s="3">
         <v>374266</v>
@@ -4260,10 +4268,10 @@
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A184" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="C184" s="3">
         <v>273686</v>
@@ -4280,10 +4288,10 @@
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A185" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="C185" s="3">
         <v>302045</v>
@@ -4300,10 +4308,10 @@
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A186" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="C186" s="3">
         <v>265575</v>
@@ -4320,10 +4328,10 @@
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A187" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="C187" s="3">
         <v>276150</v>
@@ -4340,10 +4348,10 @@
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A188" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="C188" s="3">
         <v>133567</v>
@@ -4360,10 +4368,10 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A189" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="C189" s="3">
         <v>148113</v>
@@ -4380,10 +4388,10 @@
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A190" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="C190" s="3">
         <v>133734</v>
@@ -4400,10 +4408,10 @@
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A191" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="C191" s="3">
         <v>246996</v>
@@ -4420,10 +4428,10 @@
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A192" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="C192" s="3">
         <v>221884</v>
@@ -4440,10 +4448,10 @@
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A193" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="C193" s="3">
         <v>138930</v>
@@ -4460,10 +4468,10 @@
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A194" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="C194" s="3">
         <v>484967</v>
@@ -4480,10 +4488,10 @@
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A195" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="B195" s="5" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="C195" s="3">
         <v>533178</v>
@@ -4500,10 +4508,10 @@
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A196" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="C196" s="3">
         <v>362575</v>
@@ -4520,10 +4528,10 @@
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A197" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="C197" s="3">
         <v>235425</v>
@@ -4540,10 +4548,10 @@
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A198" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="C198" s="3">
         <v>149486</v>
@@ -4560,10 +4568,10 @@
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A199" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="B199" s="5" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="C199" s="3">
         <v>173904</v>
@@ -4580,10 +4588,10 @@
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A200" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="B200" s="5" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="C200" s="3">
         <v>161958</v>
@@ -4600,10 +4608,10 @@
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A201" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="C201" s="3">
         <v>157954</v>
@@ -4620,10 +4628,10 @@
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A202" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="C202" s="3">
         <v>163001</v>
@@ -4640,10 +4648,10 @@
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A203" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="B203" s="5" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="C203" s="3">
         <v>215341</v>
@@ -4660,10 +4668,10 @@
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A204" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="B204" s="5" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="C204" s="3">
         <v>206917</v>
@@ -4680,10 +4688,10 @@
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A205" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="B205" s="5" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="C205" s="3">
         <v>204660</v>
@@ -4700,10 +4708,10 @@
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A206" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B206" s="5" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="C206" s="3">
         <v>410260</v>
@@ -4720,10 +4728,10 @@
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A207" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B207" s="5" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="C207" s="3">
         <v>377045</v>
@@ -4740,10 +4748,10 @@
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A208" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B208" s="5" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="C208" s="3">
         <v>344925</v>
@@ -4760,10 +4768,10 @@
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A209" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B209" s="5" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="C209" s="3">
         <v>345655</v>
@@ -4780,10 +4788,10 @@
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A210" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B210" s="5" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="C210" s="3">
         <v>340545</v>
@@ -4800,10 +4808,10 @@
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A211" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B211" s="5" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="C211" s="3">
         <v>341275</v>
@@ -4820,10 +4828,10 @@
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A212" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="C212" s="3">
         <v>340910</v>
@@ -4840,10 +4848,10 @@
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A213" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B213" s="5" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="C213" s="3">
         <v>338355</v>
@@ -4860,10 +4868,10 @@
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A214" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B214" s="5" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="C214" s="3">
         <v>333610</v>
@@ -4880,10 +4888,10 @@
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A215" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="C215" s="3">
         <v>334705</v>
@@ -4900,10 +4908,10 @@
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A216" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B216" s="5" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="C216" s="3">
         <v>335435</v>
@@ -4920,10 +4928,10 @@
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A217" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B217" s="5" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="C217" s="3">
         <v>336530</v>
@@ -4940,10 +4948,10 @@
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A218" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B218" s="5" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="C218" s="3">
         <v>364350</v>
@@ -4960,10 +4968,10 @@
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A219" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="C219" s="3">
         <v>377678</v>
@@ -4980,10 +4988,10 @@
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A220" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="C220" s="3">
         <v>347983</v>
@@ -5000,10 +5008,10 @@
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A221" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="C221" s="3">
         <v>387025</v>
@@ -5020,10 +5028,10 @@
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A222" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="C222" s="3">
         <v>319513</v>
@@ -5040,10 +5048,10 @@
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A223" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B223" s="5" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="C223" s="3">
         <v>385735</v>
@@ -5060,10 +5068,10 @@
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A224" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B224" s="5" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="C224" s="3">
         <v>543600</v>
@@ -5080,10 +5088,10 @@
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A225" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B225" s="5" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="C225" s="3">
         <v>370776</v>
@@ -5100,10 +5108,10 @@
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A226" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B226" s="5" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="C226" s="3">
         <v>476367</v>
@@ -5120,10 +5128,10 @@
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A227" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B227" s="5" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="C227" s="3">
         <v>364881</v>
@@ -5140,10 +5148,10 @@
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A228" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B228" s="5" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="C228" s="3">
         <v>520553</v>
@@ -5160,10 +5168,10 @@
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A229" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B229" s="5" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="C229" s="3">
         <v>404711</v>
@@ -5180,10 +5188,10 @@
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A230" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="B230" s="5" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="C230" s="3">
         <v>208814</v>
@@ -5200,10 +5208,10 @@
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A231" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="B231" s="5" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="C231" s="3">
         <v>372223</v>
@@ -5220,10 +5228,10 @@
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A232" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="B232" s="5" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="C232" s="3">
         <v>393906</v>
@@ -5240,10 +5248,10 @@
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A233" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="B233" s="5" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="C233" s="3">
         <v>632226</v>
@@ -5260,10 +5268,10 @@
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A234" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="B234" s="5" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="C234" s="3">
         <v>476907</v>
@@ -5280,10 +5288,10 @@
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A235" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="C235" s="3">
         <v>557407</v>
@@ -5300,10 +5308,10 @@
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A236" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="C236" s="3">
         <v>533378</v>
@@ -5320,10 +5328,10 @@
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A237" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="C237" s="3">
         <v>289675</v>
@@ -5340,10 +5348,10 @@
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A238" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="B238" s="5" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="C238" s="3">
         <v>300466</v>
@@ -5360,10 +5368,10 @@
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A239" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="B239" s="5" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="C239" s="3">
         <v>301354</v>
@@ -5380,10 +5388,10 @@
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A240" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="B240" s="5" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="C240" s="3">
         <v>307306</v>
@@ -5400,10 +5408,10 @@
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A241" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="B241" s="5" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="C241" s="3">
         <v>446705</v>
@@ -5420,10 +5428,10 @@
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A242" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B242" s="5" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="C242" s="3">
         <v>159356</v>
@@ -5440,10 +5448,10 @@
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A243" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B243" s="5" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="C243" s="3">
         <v>181622</v>
@@ -5460,10 +5468,10 @@
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A244" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B244" s="5" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="C244" s="3">
         <v>44415</v>
@@ -5480,10 +5488,10 @@
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A245" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B245" s="5" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="C245" s="3">
         <v>76638</v>
@@ -5500,10 +5508,10 @@
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A246" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B246" s="5" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="C246" s="3">
         <v>84596</v>
@@ -5520,10 +5528,10 @@
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A247" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B247" s="5" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="C247" s="3">
         <v>62986</v>
@@ -5540,10 +5548,10 @@
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A248" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B248" s="5" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="C248" s="3">
         <v>71320</v>
@@ -5560,10 +5568,10 @@
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A249" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B249" s="5" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="C249" s="3">
         <v>57716</v>
@@ -5580,10 +5588,10 @@
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A250" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B250" s="5" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="C250" s="3">
         <v>58512</v>
@@ -5600,10 +5608,10 @@
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A251" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B251" s="5" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="C251" s="3">
         <v>72008</v>
@@ -5620,10 +5628,10 @@
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A252" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B252" s="5" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="C252" s="3">
         <v>77375</v>
@@ -5640,10 +5648,10 @@
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A253" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B253" s="5" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="C253" s="3">
         <v>98221</v>
@@ -5660,10 +5668,10 @@
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A254" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="B254" s="5" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="C254" s="3">
         <v>159285</v>
@@ -5680,10 +5688,10 @@
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A255" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="B255" s="5" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="C255" s="3">
         <v>122745</v>
@@ -5700,10 +5708,10 @@
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A256" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="B256" s="5" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="C256" s="3">
         <v>171280</v>
@@ -5720,10 +5728,10 @@
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A257" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="B257" s="5" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="C257" s="3">
         <v>193480</v>
@@ -5740,10 +5748,10 @@
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A258" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="B258" s="5" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="C258" s="3">
         <v>177675</v>
@@ -5760,10 +5768,10 @@
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A259" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="B259" s="5" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="C259" s="3">
         <v>153195</v>
@@ -5780,10 +5788,10 @@
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A260" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="B260" s="5" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="C260" s="3">
         <v>167235</v>
@@ -5800,10 +5808,10 @@
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A261" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="B261" s="5" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="C261" s="3">
         <v>149655</v>
@@ -5820,10 +5828,10 @@
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A262" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="B262" s="5" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="C262" s="3">
         <v>166680</v>
@@ -5840,10 +5848,10 @@
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A263" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="B263" s="5" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="C263" s="3">
         <v>193795</v>
@@ -5860,10 +5868,10 @@
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A264" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="B264" s="5" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="C264" s="3">
         <v>200730</v>
@@ -5880,10 +5888,10 @@
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A265" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="B265" s="5" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="C265" s="3">
         <v>147685</v>
@@ -5900,10 +5908,10 @@
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A266" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="B266" s="5" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="C266" s="3">
         <v>147554</v>
@@ -5920,10 +5928,10 @@
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A267" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="B267" s="5" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="C267" s="3">
         <v>177115</v>
@@ -5940,10 +5948,10 @@
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A268" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="B268" s="5" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="C268" s="3">
         <v>193644</v>
@@ -5960,10 +5968,10 @@
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A269" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="B269" s="5" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="C269" s="3">
         <v>199694</v>
@@ -5980,10 +5988,10 @@
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A270" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="B270" s="5" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="C270" s="3">
         <v>183707</v>
@@ -6000,10 +6008,10 @@
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A271" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="B271" s="5" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="C271" s="3">
         <v>202044</v>
@@ -6020,10 +6028,10 @@
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A272" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="B272" s="5" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="C272" s="3">
         <v>274588</v>
@@ -6040,10 +6048,10 @@
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A273" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="B273" s="5" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="C273" s="3">
         <v>203669</v>
@@ -6060,10 +6068,10 @@
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A274" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="B274" s="5" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="C274" s="3">
         <v>192070</v>
@@ -6080,10 +6088,10 @@
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A275" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="B275" s="5" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="C275" s="3">
         <v>221266</v>
@@ -6100,10 +6108,10 @@
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A276" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="B276" s="5" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="C276" s="3">
         <v>185644</v>
@@ -6120,10 +6128,10 @@
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A277" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="B277" s="5" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="C277" s="3">
         <v>172362</v>
@@ -6140,10 +6148,10 @@
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A278" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="B278" s="5" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="C278" s="3">
         <v>145406</v>
@@ -6160,10 +6168,10 @@
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A279" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="B279" s="5" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="C279" s="3">
         <v>125807</v>
@@ -6180,10 +6188,10 @@
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A280" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="B280" s="5" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="C280" s="3">
         <v>116278</v>
@@ -6200,10 +6208,10 @@
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A281" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="B281" s="5" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="C281" s="3">
         <v>115650</v>
@@ -6220,10 +6228,10 @@
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A282" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="B282" s="5" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="C282" s="3">
         <v>72153</v>
@@ -6240,10 +6248,10 @@
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A283" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="B283" s="5" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="C283" s="3">
         <v>64764</v>
@@ -6260,10 +6268,10 @@
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A284" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="B284" s="5" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="C284" s="3">
         <v>42956</v>
@@ -6280,10 +6288,10 @@
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A285" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="B285" s="5" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="C285" s="3">
         <v>35715</v>
@@ -6300,10 +6308,10 @@
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A286" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="B286" s="5" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="C286" s="3">
         <v>53712</v>
@@ -6320,10 +6328,10 @@
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A287" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="B287" s="5" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="C287" s="3">
         <v>71724</v>
@@ -6340,10 +6348,10 @@
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A288" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="B288" s="5" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="C288" s="3">
         <v>57601</v>
@@ -6360,10 +6368,10 @@
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A289" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="B289" s="5" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="C289" s="3">
         <v>34449</v>
@@ -6380,10 +6388,10 @@
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A290" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="B290" s="5" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="C290" s="3">
         <v>119190</v>
@@ -6400,10 +6408,10 @@
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A291" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="B291" s="5" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="C291" s="3">
         <v>116435</v>
@@ -6420,10 +6428,10 @@
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A292" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="B292" s="5" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="C292" s="3">
         <v>103240</v>
@@ -6440,10 +6448,10 @@
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A293" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="B293" s="5" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="C293" s="3">
         <v>99180</v>
@@ -6460,10 +6468,10 @@
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A294" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="B294" s="5" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="C294" s="3">
         <v>98165</v>
@@ -6480,10 +6488,10 @@
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A295" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="B295" s="5" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="C295" s="3">
         <v>98600</v>
@@ -6500,10 +6508,10 @@
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A296" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="B296" s="5" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="C296" s="3">
         <v>97730</v>
@@ -6520,10 +6528,10 @@
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A297" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="B297" s="5" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="C297" s="3">
         <v>95990</v>
@@ -6540,10 +6548,10 @@
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A298" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="B298" s="5" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="C298" s="3">
         <v>93815</v>
@@ -6560,10 +6568,10 @@
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A299" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="B299" s="5" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="C299" s="3">
         <v>92945</v>
@@ -6580,10 +6588,10 @@
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A300" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="B300" s="5" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="C300" s="3">
         <v>94975</v>
@@ -6600,10 +6608,10 @@
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A301" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="B301" s="5" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="C301" s="3">
         <v>90480</v>
@@ -6620,10 +6628,10 @@
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A302" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="B302" s="5" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="C302" s="3">
         <v>103887</v>
@@ -6640,10 +6648,10 @@
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A303" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="B303" s="5" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="C303" s="3">
         <v>110913</v>
@@ -6660,10 +6668,10 @@
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A304" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="B304" s="5" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="C304" s="3">
         <v>129768</v>
@@ -6680,10 +6688,10 @@
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A305" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="B305" s="5" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="C305" s="3">
         <v>123699</v>
@@ -6700,10 +6708,10 @@
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A306" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="B306" s="5" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="C306" s="3">
         <v>101481</v>
@@ -6720,10 +6728,10 @@
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A307" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="B307" s="5" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="C307" s="3">
         <v>110037</v>
@@ -6740,10 +6748,10 @@
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A308" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="B308" s="5" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="C308" s="3">
         <v>87726</v>
@@ -6760,10 +6768,10 @@
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A309" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="B309" s="5" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="C309" s="3">
         <v>104219</v>
@@ -6780,10 +6788,10 @@
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A310" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="B310" s="5" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="C310" s="3">
         <v>91703</v>
@@ -6800,10 +6808,10 @@
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A311" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="B311" s="5" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="C311" s="3">
         <v>101896</v>
@@ -6820,10 +6828,10 @@
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A312" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="B312" s="5" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="C312" s="3">
         <v>89768</v>
@@ -6840,10 +6848,10 @@
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A313" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="B313" s="5" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="C313" s="3">
         <v>100455</v>
@@ -6860,10 +6868,10 @@
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A314" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="B314" s="5" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="C314" s="3">
         <v>98340</v>
@@ -6880,10 +6888,10 @@
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A315" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="B315" s="5" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="C315" s="3">
         <v>98340</v>
@@ -6900,10 +6908,10 @@
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A316" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="B316" s="5" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="C316" s="3">
         <v>98340</v>
@@ -6920,10 +6928,10 @@
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A317" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="B317" s="5" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="C317" s="3">
         <v>98340</v>
@@ -6940,10 +6948,10 @@
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A318" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="B318" s="5" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="C318" s="3">
         <v>98340</v>
@@ -6960,10 +6968,10 @@
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A319" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="B319" s="5" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="C319" s="3">
         <v>98340</v>
@@ -6980,10 +6988,10 @@
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A320" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="B320" s="5" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="C320" s="3">
         <v>98340</v>
@@ -7000,10 +7008,10 @@
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A321" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="B321" s="5" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="C321" s="3">
         <v>98340</v>
@@ -7020,10 +7028,10 @@
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A322" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="B322" s="5" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="C322" s="3">
         <v>98340</v>
@@ -7040,10 +7048,10 @@
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A323" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="B323" s="5" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="C323" s="3">
         <v>98340</v>
@@ -7060,10 +7068,10 @@
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A324" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="B324" s="5" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="C324" s="3">
         <v>98340</v>
@@ -7080,10 +7088,10 @@
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A325" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="B325" s="5" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="C325" s="3">
         <v>98340</v>
@@ -7100,10 +7108,10 @@
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A326" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="B326" s="5" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="C326" s="3">
         <v>88368</v>
@@ -7120,10 +7128,10 @@
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A327" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="B327" s="5" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="C327" s="3">
         <v>73347</v>
@@ -7140,10 +7148,10 @@
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A328" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="B328" s="5" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="C328" s="3">
         <v>49056</v>
@@ -7160,10 +7168,10 @@
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A329" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="B329" s="5" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="C329" s="3">
         <v>54531</v>
@@ -7180,10 +7188,10 @@
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A330" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="B330" s="5" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="C330" s="3">
         <v>89376</v>
@@ -7200,10 +7208,10 @@
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A331" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="B331" s="5" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="C331" s="3">
         <v>103152</v>
@@ -7220,10 +7228,10 @@
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A332" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="B332" s="5" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="C332" s="3">
         <v>139776</v>
@@ -7240,10 +7248,10 @@
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A333" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="B333" s="5" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="C333" s="3">
         <v>144480</v>
@@ -7260,10 +7268,10 @@
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A334" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="B334" s="5" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="C334" s="3">
         <v>108192</v>
@@ -7280,10 +7288,10 @@
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A335" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="B335" s="5" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="C335" s="3">
         <v>102098</v>
@@ -7300,10 +7308,10 @@
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A336" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="B336" s="5" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="C336" s="3">
         <v>124419</v>
@@ -7320,10 +7328,10 @@
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A337" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="B337" s="5" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="C337" s="3">
         <v>85680</v>
@@ -7340,10 +7348,10 @@
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A338" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="B338" s="5" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="C338" s="3">
         <v>47610</v>
@@ -7360,10 +7368,10 @@
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A339" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="B339" s="5" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="C339" s="3">
         <v>47610</v>
@@ -7380,10 +7388,10 @@
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A340" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="B340" s="5" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="C340" s="3">
         <v>47610</v>
@@ -7400,10 +7408,10 @@
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A341" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="B341" s="5" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="C341" s="3">
         <v>47610</v>
@@ -7420,10 +7428,10 @@
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A342" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="B342" s="5" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="C342" s="3">
         <v>47610</v>
@@ -7440,10 +7448,10 @@
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A343" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="B343" s="5" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="C343" s="3">
         <v>44618</v>
@@ -7460,10 +7468,10 @@
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A344" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="B344" s="5" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="C344" s="3">
         <v>41850</v>
@@ -7480,10 +7488,10 @@
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A345" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="B345" s="5" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="C345" s="3">
         <v>44063</v>
@@ -7500,10 +7508,10 @@
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A346" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="B346" s="5" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="C346" s="3">
         <v>48815</v>
@@ -7520,10 +7528,10 @@
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A347" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="B347" s="5" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="C347" s="3">
         <v>48815</v>
@@ -7540,10 +7548,10 @@
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A348" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="B348" s="5" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="C348" s="3">
         <v>47610</v>
@@ -7560,10 +7568,10 @@
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A349" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="B349" s="5" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="C349" s="3">
         <v>47610</v>
@@ -7580,10 +7588,10 @@
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A350" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="B350" s="5" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="C350" s="3">
         <v>40162</v>
@@ -7600,10 +7608,10 @@
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A351" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="B351" s="5" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="C351" s="3">
         <v>27038</v>
@@ -7620,10 +7628,10 @@
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A352" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="B352" s="5" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="C352" s="3">
         <v>31704</v>
@@ -7640,10 +7648,10 @@
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A353" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="B353" s="5" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="C353" s="3">
         <v>32003</v>
@@ -7660,10 +7668,10 @@
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A354" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="B354" s="5" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="C354" s="3">
         <v>26789</v>
@@ -7680,10 +7688,10 @@
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A355" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="B355" s="5" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="C355" s="3">
         <v>28234</v>
@@ -7700,10 +7708,10 @@
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A356" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="B356" s="5" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="C356" s="3">
         <v>27942</v>
@@ -7720,10 +7728,10 @@
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A357" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="B357" s="5" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="C357" s="3">
         <v>30262</v>
@@ -7740,10 +7748,10 @@
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A358" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="B358" s="5" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="C358" s="3">
         <v>32276</v>
@@ -7760,10 +7768,10 @@
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A359" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="B359" s="5" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="C359" s="3">
         <v>32318</v>
@@ -7780,10 +7788,10 @@
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A360" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="B360" s="5" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="C360" s="3">
         <v>31322</v>
@@ -7800,10 +7808,10 @@
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A361" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="B361" s="5" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="C361" s="3">
         <v>31836</v>
@@ -7820,10 +7828,10 @@
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A362" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="B362" s="5" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="C362" s="3">
         <v>39750</v>
@@ -7840,10 +7848,10 @@
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A363" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="B363" s="5" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="C363" s="3">
         <v>38793</v>
@@ -7860,10 +7868,10 @@
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A364" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="B364" s="5" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="C364" s="3">
         <v>31561</v>
@@ -7880,10 +7888,10 @@
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A365" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="B365" s="5" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="C365" s="3">
         <v>33280</v>
@@ -7900,10 +7908,10 @@
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A366" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="B366" s="5" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="C366" s="3">
         <v>30868</v>
@@ -7920,10 +7928,10 @@
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A367" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="B367" s="5" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="C367" s="3">
         <v>32262</v>
@@ -7940,10 +7948,10 @@
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A368" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="B368" s="5" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="C368" s="3">
         <v>31352</v>
@@ -7960,10 +7968,10 @@
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A369" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="B369" s="5" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="C369" s="3">
         <v>32071</v>
@@ -7980,10 +7988,10 @@
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A370" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="B370" s="5" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="C370" s="3">
         <v>33722</v>
@@ -8000,10 +8008,10 @@
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A371" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="B371" s="5" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="C371" s="3">
         <v>34044</v>
@@ -8020,10 +8028,10 @@
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A372" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="B372" s="5" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="C372" s="3">
         <v>33305</v>
@@ -8040,10 +8048,10 @@
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A373" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="B373" s="5" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="C373" s="3">
         <v>32946</v>
@@ -8060,10 +8068,10 @@
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A374" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="B374" s="5" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="C374" s="3">
         <v>16240</v>
@@ -8080,10 +8088,10 @@
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A375" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="B375" s="5" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="C375" s="3">
         <v>14500</v>
@@ -8100,10 +8108,10 @@
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A376" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="B376" s="5" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="C376" s="3">
         <v>10730</v>
@@ -8120,10 +8128,10 @@
     </row>
     <row r="377" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A377" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="B377" s="5" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="C377" s="3">
         <v>8700</v>
@@ -8140,10 +8148,10 @@
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A378" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="B378" s="5" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="C378" s="3">
         <v>9135</v>
@@ -8160,10 +8168,10 @@
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A379" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="B379" s="5" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="C379" s="3">
         <v>9860</v>
@@ -8180,10 +8188,10 @@
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A380" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="B380" s="5" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="C380" s="3">
         <v>13050</v>
@@ -8200,10 +8208,10 @@
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A381" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="B381" s="5" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="C381" s="3">
         <v>12180</v>
@@ -8220,10 +8228,10 @@
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A382" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="B382" s="5" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="C382" s="3">
         <v>11600</v>
@@ -8240,10 +8248,10 @@
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A383" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="B383" s="5" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="C383" s="3">
         <v>10730</v>
@@ -8260,10 +8268,10 @@
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A384" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="B384" s="5" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="C384" s="3">
         <v>11600</v>
@@ -8280,10 +8288,10 @@
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A385" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="B385" s="5" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="C385" s="3">
         <v>11890</v>
@@ -8300,10 +8308,10 @@
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A386" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="B386" s="5" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="C386" s="3">
         <v>13320</v>
@@ -8320,10 +8328,10 @@
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A387" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="B387" s="5" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="C387" s="3">
         <v>13320</v>
@@ -8340,10 +8348,10 @@
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A388" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="B388" s="5" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="C388" s="3">
         <v>13320</v>
@@ -8360,10 +8368,10 @@
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A389" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="B389" s="5" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="C389" s="3">
         <v>13320</v>
@@ -8380,10 +8388,10 @@
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A390" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="B390" s="5" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="C390" s="3">
         <v>13320</v>
@@ -8400,10 +8408,10 @@
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A391" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="B391" s="5" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="C391" s="3">
         <v>14208</v>
@@ -8420,10 +8428,10 @@
     </row>
     <row r="392" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A392" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="B392" s="5" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="C392" s="3">
         <v>13320</v>
@@ -8440,10 +8448,10 @@
     </row>
     <row r="393" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A393" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="B393" s="5" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="C393" s="3">
         <v>13320</v>
@@ -8460,10 +8468,10 @@
     </row>
     <row r="394" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A394" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="B394" s="5" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="C394" s="3">
         <v>13764</v>
@@ -8480,10 +8488,10 @@
     </row>
     <row r="395" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A395" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="B395" s="5" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="C395" s="3">
         <v>13320</v>
@@ -8500,10 +8508,10 @@
     </row>
     <row r="396" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A396" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="B396" s="5" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="C396" s="3">
         <v>13320</v>
@@ -8520,10 +8528,10 @@
     </row>
     <row r="397" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A397" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="B397" s="5" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="C397" s="3">
         <v>14208</v>
@@ -8540,10 +8548,10 @@
     </row>
     <row r="398" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A398" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="B398" s="5" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="C398" s="3">
         <v>9280</v>
@@ -8560,10 +8568,10 @@
     </row>
     <row r="399" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A399" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="B399" s="5" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="C399" s="3">
         <v>8512</v>
@@ -8580,10 +8588,10 @@
     </row>
     <row r="400" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A400" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="B400" s="5" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="C400" s="3">
         <v>7360</v>
@@ -8600,10 +8608,10 @@
     </row>
     <row r="401" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A401" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="B401" s="5" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="C401" s="3">
         <v>7808</v>
@@ -8620,10 +8628,10 @@
     </row>
     <row r="402" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A402" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="B402" s="5" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="C402" s="3">
         <v>7744</v>
@@ -8640,10 +8648,10 @@
     </row>
     <row r="403" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A403" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="B403" s="5" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="C403" s="3">
         <v>8192</v>
@@ -8660,10 +8668,10 @@
     </row>
     <row r="404" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A404" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="B404" s="5" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="C404" s="3">
         <v>7296</v>
@@ -8680,10 +8688,10 @@
     </row>
     <row r="405" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A405" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="B405" s="5" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="C405" s="3">
         <v>7360</v>
@@ -8700,10 +8708,10 @@
     </row>
     <row r="406" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A406" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="B406" s="5" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="C406" s="3">
         <v>7424</v>
@@ -8720,10 +8728,10 @@
     </row>
     <row r="407" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A407" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="B407" s="5" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="C407" s="3">
         <v>11328</v>
@@ -8740,10 +8748,10 @@
     </row>
     <row r="408" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A408" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="B408" s="5" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="C408" s="3">
         <v>6720</v>
@@ -8760,10 +8768,10 @@
     </row>
     <row r="409" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A409" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="B409" s="5" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="C409" s="3">
         <v>6912</v>
@@ -8780,10 +8788,10 @@
     </row>
     <row r="410" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A410" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="B410" s="5" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="C410" s="3">
         <v>8732</v>
@@ -8800,10 +8808,10 @@
     </row>
     <row r="411" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A411" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="B411" s="5" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="C411" s="3">
         <v>9150</v>
@@ -8820,10 +8828,10 @@
     </row>
     <row r="412" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A412" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="B412" s="5" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="C412" s="3">
         <v>9150</v>
@@ -8840,10 +8848,10 @@
     </row>
     <row r="413" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A413" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="B413" s="5" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="C413" s="3">
         <v>9150</v>
@@ -8860,10 +8868,10 @@
     </row>
     <row r="414" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A414" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="B414" s="5" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="C414" s="3">
         <v>9937</v>
@@ -8880,10 +8888,10 @@
     </row>
     <row r="415" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A415" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="B415" s="5" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="C415" s="3">
         <v>11078</v>
@@ -8900,10 +8908,10 @@
     </row>
     <row r="416" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A416" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="B416" s="5" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="C416" s="3">
         <v>11078</v>
@@ -8920,10 +8928,10 @@
     </row>
     <row r="417" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A417" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="B417" s="5" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="C417" s="3">
         <v>10931</v>
@@ -8940,10 +8948,10 @@
     </row>
     <row r="418" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A418" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="B418" s="5" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="C418" s="3">
         <v>9952</v>
@@ -8960,10 +8968,10 @@
     </row>
     <row r="419" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A419" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="B419" s="5" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="C419" s="3">
         <v>9790</v>
@@ -8980,10 +8988,10 @@
     </row>
     <row r="420" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A420" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="B420" s="5" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="C420" s="3">
         <v>9150</v>
@@ -9000,10 +9008,10 @@
     </row>
     <row r="421" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A421" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="B421" s="5" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="C421" s="3">
         <v>9037</v>
@@ -9020,10 +9028,10 @@
     </row>
     <row r="422" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A422" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="B422" s="5" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="C422" s="3">
         <v>7168</v>
@@ -9040,10 +9048,10 @@
     </row>
     <row r="423" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A423" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="B423" s="5" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="C423" s="3">
         <v>6400</v>
@@ -9060,10 +9068,10 @@
     </row>
     <row r="424" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A424" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="B424" s="5" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="C424" s="3">
         <v>6016</v>
@@ -9080,10 +9088,10 @@
     </row>
     <row r="425" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A425" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="B425" s="5" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="C425" s="3">
         <v>5632</v>
@@ -9100,10 +9108,10 @@
     </row>
     <row r="426" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A426" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="B426" s="5" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="C426" s="3">
         <v>5760</v>
@@ -9120,10 +9128,10 @@
     </row>
     <row r="427" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A427" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="B427" s="5" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="C427" s="3">
         <v>5824</v>
@@ -9140,10 +9148,10 @@
     </row>
     <row r="428" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A428" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="B428" s="5" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="C428" s="3">
         <v>6656</v>
@@ -9160,10 +9168,10 @@
     </row>
     <row r="429" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A429" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="B429" s="5" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="C429" s="3">
         <v>7168</v>
@@ -9180,10 +9188,10 @@
     </row>
     <row r="430" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A430" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="B430" s="5" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="C430" s="3">
         <v>7040</v>
@@ -9200,10 +9208,10 @@
     </row>
     <row r="431" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A431" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="B431" s="5" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="C431" s="3">
         <v>6656</v>
@@ -9220,10 +9228,10 @@
     </row>
     <row r="432" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A432" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="B432" s="5" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="C432" s="3">
         <v>7168</v>
@@ -9240,10 +9248,10 @@
     </row>
     <row r="433" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A433" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="B433" s="5" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="C433" s="3">
         <v>7040</v>
@@ -9260,10 +9268,10 @@
     </row>
     <row r="434" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A434" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="B434" s="5" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="C434" s="3">
         <v>6206</v>
@@ -9280,10 +9288,10 @@
     </row>
     <row r="435" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A435" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="B435" s="5" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="C435" s="3">
         <v>5852</v>
@@ -9300,10 +9308,10 @@
     </row>
     <row r="436" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A436" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="B436" s="5" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="C436" s="3">
         <v>5852</v>
@@ -9320,10 +9328,10 @@
     </row>
     <row r="437" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A437" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="B437" s="5" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="C437" s="3">
         <v>6270</v>
@@ -9340,10 +9348,10 @@
     </row>
     <row r="438" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A438" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="B438" s="5" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="C438" s="3">
         <v>6624</v>
@@ -9360,10 +9368,10 @@
     </row>
     <row r="439" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A439" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="B439" s="5" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="C439" s="3">
         <v>7123</v>
@@ -9380,10 +9388,10 @@
     </row>
     <row r="440" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A440" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="B440" s="5" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="C440" s="3">
         <v>6270</v>
@@ -9400,10 +9408,10 @@
     </row>
     <row r="441" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A441" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="B441" s="5" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="C441" s="3">
         <v>6253</v>
@@ -9420,10 +9428,10 @@
     </row>
     <row r="442" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A442" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="B442" s="5" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="C442" s="3">
         <v>6270</v>
@@ -9440,10 +9448,10 @@
     </row>
     <row r="443" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A443" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="B443" s="5" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="C443" s="3">
         <v>6270</v>
@@ -9460,10 +9468,10 @@
     </row>
     <row r="444" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A444" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="B444" s="5" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="C444" s="3">
         <v>6270</v>
@@ -9480,10 +9488,10 @@
     </row>
     <row r="445" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A445" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="B445" s="5" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="C445" s="3">
         <v>6543</v>
@@ -9500,10 +9508,10 @@
     </row>
     <row r="446" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A446" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="B446" s="5" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="C446" s="3">
         <v>4350</v>
@@ -9520,10 +9528,10 @@
     </row>
     <row r="447" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A447" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="B447" s="5" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="C447" s="3">
         <v>4350</v>
@@ -9540,10 +9548,10 @@
     </row>
     <row r="448" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A448" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="B448" s="5" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="C448" s="3">
         <v>4350</v>
@@ -9560,10 +9568,10 @@
     </row>
     <row r="449" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A449" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="B449" s="5" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="C449" s="3">
         <v>4350</v>
@@ -9580,10 +9588,10 @@
     </row>
     <row r="450" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A450" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="B450" s="5" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="C450" s="3">
         <v>4785</v>
@@ -9600,10 +9608,10 @@
     </row>
     <row r="451" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A451" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="B451" s="5" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="C451" s="3">
         <v>4350</v>
@@ -9620,10 +9628,10 @@
     </row>
     <row r="452" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A452" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="B452" s="5" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="C452" s="3">
         <v>4350</v>
@@ -9640,10 +9648,10 @@
     </row>
     <row r="453" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A453" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="B453" s="5" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="C453" s="3">
         <v>4350</v>
@@ -9660,10 +9668,10 @@
     </row>
     <row r="454" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A454" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="B454" s="5" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="C454" s="3">
         <v>4350</v>
@@ -9680,10 +9688,10 @@
     </row>
     <row r="455" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A455" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="B455" s="5" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="C455" s="3">
         <v>4350</v>
@@ -9700,10 +9708,10 @@
     </row>
     <row r="456" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A456" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="B456" s="5" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="C456" s="3">
         <v>4350</v>
@@ -9720,10 +9728,10 @@
     </row>
     <row r="457" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A457" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="B457" s="5" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="C457" s="3">
         <v>4495</v>
@@ -9740,10 +9748,10 @@
     </row>
     <row r="458" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A458" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B458" s="5" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="C458" s="3">
         <v>1792</v>
@@ -9760,10 +9768,10 @@
     </row>
     <row r="459" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A459" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B459" s="5" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="C459" s="3">
         <v>1792</v>
@@ -9780,10 +9788,10 @@
     </row>
     <row r="460" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A460" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B460" s="5" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="C460" s="3">
         <v>1280</v>
@@ -9800,10 +9808,10 @@
     </row>
     <row r="461" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A461" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B461" s="5" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="C461" s="3">
         <v>1280</v>
@@ -9820,10 +9828,10 @@
     </row>
     <row r="462" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A462" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B462" s="5" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="C462" s="3">
         <v>1152</v>
@@ -9840,10 +9848,10 @@
     </row>
     <row r="463" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A463" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B463" s="5" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="C463" s="3">
         <v>1280</v>
@@ -9860,10 +9868,10 @@
     </row>
     <row r="464" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A464" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B464" s="5" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="C464" s="3">
         <v>1920</v>
@@ -9880,10 +9888,10 @@
     </row>
     <row r="465" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A465" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B465" s="5" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="C465" s="3">
         <v>2240</v>
@@ -9900,10 +9908,10 @@
     </row>
     <row r="466" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A466" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B466" s="5" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="C466" s="3">
         <v>2112</v>
@@ -9920,10 +9928,10 @@
     </row>
     <row r="467" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A467" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B467" s="5" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="C467" s="3">
         <v>1920</v>
@@ -9940,10 +9948,10 @@
     </row>
     <row r="468" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A468" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B468" s="5" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="C468" s="3">
         <v>1920</v>
@@ -9960,10 +9968,10 @@
     </row>
     <row r="469" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A469" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B469" s="5" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="C469" s="3">
         <v>2048</v>
@@ -9980,10 +9988,10 @@
     </row>
     <row r="470" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A470" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="B470" s="5" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="C470" s="3">
         <v>1624</v>
@@ -10000,10 +10008,10 @@
     </row>
     <row r="471" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A471" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="B471" s="5" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="C471" s="3">
         <v>1624</v>
@@ -10020,10 +10028,10 @@
     </row>
     <row r="472" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A472" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="B472" s="5" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="C472" s="3">
         <v>1160</v>
@@ -10040,10 +10048,10 @@
     </row>
     <row r="473" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A473" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="B473" s="5" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="C473" s="3">
         <v>1740</v>
@@ -10060,10 +10068,10 @@
     </row>
     <row r="474" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A474" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="B474" s="5" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="C474" s="3">
         <v>2030</v>
@@ -10080,10 +10088,10 @@
     </row>
     <row r="475" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A475" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="B475" s="5" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="C475" s="3">
         <v>2088</v>
@@ -10100,10 +10108,10 @@
     </row>
     <row r="476" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A476" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="B476" s="5" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="C476" s="3">
         <v>1972</v>
@@ -10120,10 +10128,10 @@
     </row>
     <row r="477" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A477" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="B477" s="5" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="C477" s="3">
         <v>2262</v>
@@ -10140,10 +10148,10 @@
     </row>
     <row r="478" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A478" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="B478" s="5" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="C478" s="3">
         <v>2494</v>
@@ -10160,10 +10168,10 @@
     </row>
     <row r="479" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A479" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="B479" s="5" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="C479" s="3">
         <v>1740</v>
@@ -10180,10 +10188,10 @@
     </row>
     <row r="480" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A480" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="B480" s="5" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="C480" s="3">
         <v>1740</v>
@@ -10200,10 +10208,10 @@
     </row>
     <row r="481" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A481" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="B481" s="5" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="C481" s="3">
         <v>1856</v>
@@ -10220,10 +10228,10 @@
     </row>
     <row r="482" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A482" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="B482" s="5" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="C482" s="3">
         <v>0</v>
@@ -10240,10 +10248,10 @@
     </row>
     <row r="483" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A483" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="B483" s="5" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="C483" s="3">
         <v>0</v>
@@ -10260,10 +10268,10 @@
     </row>
     <row r="484" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A484" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="B484" s="5" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="C484" s="3">
         <v>0</v>
@@ -10280,10 +10288,10 @@
     </row>
     <row r="485" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A485" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="B485" s="5" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="C485" s="3">
         <v>0</v>
@@ -10300,10 +10308,10 @@
     </row>
     <row r="486" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A486" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="B486" s="5" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="C486" s="3">
         <v>0</v>
@@ -10320,10 +10328,10 @@
     </row>
     <row r="487" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A487" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="B487" s="5" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="C487" s="3">
         <v>0</v>
@@ -10340,10 +10348,10 @@
     </row>
     <row r="488" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A488" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="B488" s="5" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="C488" s="3">
         <v>0</v>
@@ -10360,10 +10368,10 @@
     </row>
     <row r="489" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A489" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="B489" s="5" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="C489" s="3">
         <v>0</v>
@@ -10380,10 +10388,10 @@
     </row>
     <row r="490" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A490" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="B490" s="5" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="C490" s="3">
         <v>0</v>
@@ -10400,10 +10408,10 @@
     </row>
     <row r="491" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A491" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="B491" s="5" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="C491" s="3">
         <v>0</v>
@@ -10420,10 +10428,10 @@
     </row>
     <row r="492" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A492" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="B492" s="5" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="C492" s="3">
         <v>135060</v>
@@ -10440,10 +10448,10 @@
     </row>
     <row r="493" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A493" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="B493" s="5" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="C493" s="3">
         <v>139669</v>
